--- a/REFramework/VB/Data/Config.xlsx
+++ b/REFramework/VB/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/UiPath/Reframework_update/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/StudioTemplates/REFramework/VB/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{13386E9B-2A6C-42D9-AD45-2092F6427BAE}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{860A6805-D6E9-485D-B8D3-B6A5A8C26AE0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10320" yWindow="17280" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveRetryNumber is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
@@ -154,6 +151,15 @@
   </si>
   <si>
     <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1614,7 +1620,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,15 +1676,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.8">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1751,55 +1757,65 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="28.8">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/REFramework/VB/Data/Config.xlsx
+++ b/REFramework/VB/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/StudioTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreea.ghetu\Documents\UiPath\CSharpChanges\StudioTemplates\REFramework\VB\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{860A6805-D6E9-485D-B8D3-B6A5A8C26AE0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10320" yWindow="17280" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was exceeded. </t>
-  </si>
-  <si>
     <t>ExceptionMessage_ConsecutiveErrors</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
 </sst>
 </file>
@@ -541,12 +541,12 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,13 +588,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1620,15 +1620,15 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1665,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1757,48 +1757,48 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2786,12 +2786,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/REFramework/VB/Data/Config.xlsx
+++ b/REFramework/VB/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreea.ghetu\Documents\UiPath\CSharpChanges\StudioTemplates\REFramework\VB\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>ExceptionMessage_ConsecutiveErrors</t>
   </si>
   <si>
-    <t>TestFramework</t>
-  </si>
-  <si>
     <t>RetryNumberGetTransactionItem</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>ProcessABCQueue</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,13 +588,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1619,16 +1619,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1665,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1760,45 +1760,45 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2786,12 +2786,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/REFramework/VB/Data/Config.xlsx
+++ b/REFramework/VB/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/UiPath/Reframework_update/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{13386E9B-2A6C-42D9-AD45-2092F6427BAE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -126,21 +126,12 @@
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveRetryNumber is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was exceeded. </t>
-  </si>
-  <si>
     <t>ExceptionMessage_ConsecutiveErrors</t>
   </si>
   <si>
-    <t>TestFramework</t>
-  </si>
-  <si>
     <t>RetryNumberGetTransactionItem</t>
   </si>
   <si>
@@ -154,6 +145,21 @@
   </si>
   <si>
     <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>ProcessABCQueue</t>
   </si>
 </sst>
 </file>
@@ -531,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -582,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1613,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,15 +1676,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.8">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1751,55 +1757,65 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="28.8">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
